--- a/nhatha/test_data/new_event.xlsx
+++ b/nhatha/test_data/new_event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\University\222_ST\Software-Testing\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\University\222_ST\Software-Testing\nhatha\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCCDDAB-C398-419E-A681-522DBFBE6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99D432-849E-4858-97D6-84DDE33C97E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase_1" sheetId="2" r:id="rId1"/>
@@ -794,18 +794,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0423EF3-966D-42F7-8CA2-00014E4790A2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="37">
         <v>45025.017361111109</v>
@@ -1572,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065767CF-5760-4D72-9646-87BFBE95D434}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2176,39 +2176,39 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="43" t="s">
+      <c r="J17" s="43"/>
+      <c r="K17" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="42" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="40" t="s">
         <v>73</v>
       </c>
       <c r="N17" s="16"/>
@@ -2226,14 +2226,14 @@
       <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="17" t="s">
         <v>72</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="L18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="40"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -2276,7 +2276,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -2298,7 +2298,7 @@
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="38" t="s">
@@ -2382,7 +2382,7 @@
     <row r="22" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="39"/>
       <c r="E22" s="8" t="s">
         <v>11</v>
@@ -2397,11 +2397,11 @@
       <c r="I22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="11"/>
       <c r="N22" s="15"/>
       <c r="O22" s="1"/>
@@ -2424,7 +2424,7 @@
       <c r="B23" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="45" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="38" t="s">
@@ -2508,7 +2508,7 @@
     <row r="25" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="39"/>
       <c r="E25" s="8" t="s">
         <v>11</v>
@@ -2523,11 +2523,11 @@
       <c r="I25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="11"/>
       <c r="N25" s="15"/>
       <c r="O25" s="1"/>
@@ -2550,7 +2550,7 @@
       <c r="B26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="38" t="s">
@@ -2632,9 +2632,9 @@
       <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="39"/>
       <c r="E28" s="8" t="s">
         <v>11</v>
@@ -2649,11 +2649,11 @@
       <c r="I28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="40"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="11"/>
       <c r="N28" s="15"/>
       <c r="O28" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="B29" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="45" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="38" t="s">
@@ -2722,9 +2722,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="39"/>
       <c r="E30" s="8" t="s">
         <v>14</v>
@@ -2739,11 +2739,11 @@
       <c r="I30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L30" s="40"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="11"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2766,7 +2766,7 @@
       <c r="B31" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="38" t="s">
@@ -2958,9 +2958,9 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="39"/>
       <c r="E36" s="8" t="s">
         <v>5</v>
@@ -2975,11 +2975,11 @@
       <c r="I36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="40"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L36" s="40"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="4"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3002,7 +3002,7 @@
       <c r="B37" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="38" t="s">
@@ -3194,9 +3194,9 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="39"/>
       <c r="E42" s="8" t="s">
         <v>5</v>
@@ -3211,11 +3211,11 @@
       <c r="I42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="40"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L42" s="40"/>
+      <c r="L42" s="41"/>
       <c r="M42" s="4"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3238,7 +3238,7 @@
       <c r="B43" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="38" t="s">
@@ -3462,9 +3462,9 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="39"/>
       <c r="E49" s="12" t="s">
         <v>3</v>
@@ -3479,11 +3479,11 @@
       <c r="I49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="40"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="40"/>
+      <c r="L49" s="41"/>
       <c r="M49" s="4"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3506,7 +3506,7 @@
       <c r="B50" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="38" t="s">
@@ -3730,9 +3730,9 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="39"/>
       <c r="E56" s="8" t="s">
         <v>3</v>
@@ -3747,11 +3747,11 @@
       <c r="I56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L56" s="40"/>
+      <c r="L56" s="41"/>
       <c r="M56" s="4"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3774,7 +3774,7 @@
       <c r="B57" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="45" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="38" t="s">
@@ -3998,9 +3998,9 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="39"/>
       <c r="E63" s="8" t="s">
         <v>3</v>
@@ -4015,11 +4015,11 @@
       <c r="I63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="40"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L63" s="40"/>
+      <c r="L63" s="41"/>
       <c r="M63" s="4"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -4266,9 +4266,9 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="39"/>
       <c r="E70" s="8" t="s">
         <v>3</v>
@@ -4283,11 +4283,11 @@
       <c r="I70" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J70" s="40"/>
+      <c r="J70" s="41"/>
       <c r="K70" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L70" s="40"/>
+      <c r="L70" s="41"/>
       <c r="M70" s="4"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="B71" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D71" s="38" t="s">
@@ -4534,10 +4534,10 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="8" t="s">
         <v>3</v>
       </c>
@@ -4551,11 +4551,11 @@
       <c r="I77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J77" s="40"/>
+      <c r="J77" s="41"/>
       <c r="K77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L77" s="40"/>
+      <c r="L77" s="41"/>
       <c r="M77" s="4"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4578,7 +4578,7 @@
       <c r="B78" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D78" s="38" t="s">
@@ -4802,10 +4802,10 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="8" t="s">
         <v>3</v>
       </c>
@@ -4819,11 +4819,11 @@
       <c r="I84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="40"/>
+      <c r="J84" s="41"/>
       <c r="K84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L84" s="40"/>
+      <c r="L84" s="41"/>
       <c r="M84" s="4"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -4846,7 +4846,7 @@
       <c r="B85" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="38" t="s">
@@ -5070,10 +5070,10 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="8" t="s">
         <v>3</v>
       </c>
@@ -5087,11 +5087,11 @@
       <c r="I91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J91" s="40"/>
+      <c r="J91" s="41"/>
       <c r="K91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L91" s="40"/>
+      <c r="L91" s="41"/>
       <c r="M91" s="4"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5114,7 +5114,7 @@
       <c r="B92" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="45" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -5338,10 +5338,10 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="8" t="s">
         <v>3</v>
       </c>
@@ -5355,11 +5355,11 @@
       <c r="I98" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J98" s="40"/>
+      <c r="J98" s="41"/>
       <c r="K98" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L98" s="40"/>
+      <c r="L98" s="41"/>
       <c r="M98" s="4"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -5606,10 +5606,10 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
       <c r="E105" s="8" t="s">
         <v>3</v>
       </c>
@@ -5623,11 +5623,11 @@
       <c r="I105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J105" s="40"/>
+      <c r="J105" s="41"/>
       <c r="K105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L105" s="40"/>
+      <c r="L105" s="41"/>
       <c r="M105" s="4"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -30145,6 +30145,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="J85:J91"/>
+    <mergeCell ref="L85:L91"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="D78:D84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="J99:J105"/>
+    <mergeCell ref="L99:L105"/>
+    <mergeCell ref="C99:C105"/>
+    <mergeCell ref="D99:D105"/>
+    <mergeCell ref="J92:J98"/>
+    <mergeCell ref="L92:L98"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="L71:L77"/>
+    <mergeCell ref="L78:L84"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="D64:D70"/>
+    <mergeCell ref="L64:L70"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="L43:L49"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="L50:L56"/>
+    <mergeCell ref="J57:J63"/>
+    <mergeCell ref="L57:L63"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:C98"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="J64:J70"/>
+    <mergeCell ref="J71:J77"/>
+    <mergeCell ref="J78:J84"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L29:L30"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="H17:H18"/>
@@ -30169,84 +30247,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="L50:L56"/>
-    <mergeCell ref="J57:J63"/>
-    <mergeCell ref="L57:L63"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:C98"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="J64:J70"/>
-    <mergeCell ref="J71:J77"/>
-    <mergeCell ref="J78:J84"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="L71:L77"/>
-    <mergeCell ref="L78:L84"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="D64:D70"/>
-    <mergeCell ref="L64:L70"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="L43:L49"/>
-    <mergeCell ref="J85:J91"/>
-    <mergeCell ref="L85:L91"/>
-    <mergeCell ref="D71:D77"/>
-    <mergeCell ref="D78:D84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="J99:J105"/>
-    <mergeCell ref="L99:L105"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="D99:D105"/>
-    <mergeCell ref="J92:J98"/>
-    <mergeCell ref="L92:L98"/>
-    <mergeCell ref="D85:D91"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H4">
     <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="&quot;Not Run&quot;">
